--- a/medicine/Psychotrope/Landwehr-Bräu/Landwehr-Bräu.xlsx
+++ b/medicine/Psychotrope/Landwehr-Bräu/Landwehr-Bräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Landwehr-Br%C3%A4u</t>
+          <t>Landwehr-Bräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Landwehr-Bräu Wilhelm Wörner GmbH &amp; Co.KG est une brasserie à Reichelshofen, dans le district de Moyenne-Franconie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Landwehr-Br%C3%A4u</t>
+          <t>Landwehr-Bräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine actuel de la brasserie a eu de nombreux propriétaires au cours de l'histoire, y compris à la fin du Moyen Âge, Heinrich Toppler (bourgmestre de Rothenburg ob der Tauber). Il devient l'homonyme de l'une des bière des de la brasserie. En 1841, une nouvelle brasserie est construite à Reichelshofen. Les ventes de bière de augmentent tellement qu'en 1879, de nouvelles caves de stockage de glace et de bière sont créées. D'autres extensions existent dans les années 1890, notamment une machinerie plus importante. En 1913, Johann Alt achète la totalité du domaine à Reichelshofen. Le brasseur Wilhelm Wörner épouse la fille d’Alts, Margarete, puis reprend la brasserie. La brasserie Alt devient la Landwehr-Bräu, qui produit plus de 5 500 hectolitres de bière de avant la Seconde Guerre mondiale. Après la guerre, la brasserie et l'auberge s'agrandissent peu à peu.
 Son fils Wilhelm Wörner poursuit cette expansion, en particulier dans les années 1990, avant que les directeurs généraux Gerhard Ilgenfritz et Roland Hausmann en prennent la responsabilité après sa mort. En 2013, un demi million d'euros est investi dans l'entreprise.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Landwehr-Br%C3%A4u</t>
+          <t>Landwehr-Bräu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
